--- a/biology/Botanique/Polyneura_(algue)/Polyneura_(algue).xlsx
+++ b/biology/Botanique/Polyneura_(algue)/Polyneura_(algue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polyneura est un genre d’algues rouges de la famille des Delesseriaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (3 février 2019)[1] et World Register of Marine Species                               (3 février 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (3 février 2019) et World Register of Marine Species                               (3 février 2019) :
 Polyneura bonnemaisonii (C.Agardh) Maggs &amp; Hommersand, 1993
 Polyneura californica J.Agardh, 1899
 Polyneura denticulata Feldmann
@@ -521,13 +535,13 @@
 Polyneura litterata (J.Agardh) Kylin, 1924
 Polyneura subtropica (C.W.Schneider) T.Yoshida &amp; Mikami, 1991
 Polyneura venosa (Harvey) Papenfuss, 1968
-Selon BioLib                    (3 février 2019)[3] :
+Selon BioLib                    (3 février 2019) :
 Polyneura subtropica (C.W.Schneider) T.Yoshida &amp; Mikami
-Selon ITIS      (3 février 2019)[4] :
+Selon ITIS      (3 février 2019) :
 Polyneura gmelinii
 Polyneura hilliae
 Polyneura latissima
-Selon NCBI  (3 février 2019)[5] :
+Selon NCBI  (3 février 2019) :
 Polyneura bonnemaisonii
 Polyneura japonica (Yamada) Mikami
 Polyneura latissima</t>
